--- a/Excel2Json/Test/medal_constant.xlsx
+++ b/Excel2Json/Test/medal_constant.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,9 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vector&lt;int&gt;</t>
-  </si>
-  <si>
     <t>1|10|30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +131,26 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;int&gt;;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,91 +609,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="16" width="12.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" customWidth="1"/>
-    <col min="18" max="19" width="12.75" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="17" width="12.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="20" width="12.75" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="9" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="7"/>
       <c r="N1" s="8"/>
-      <c r="O1" s="7"/>
+      <c r="O1" s="8"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -688,117 +711,126 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="6"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="6"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>20</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G5" s="11">
         <v>5</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H5" s="11">
         <v>2</v>
       </c>
-      <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -812,9 +844,9 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -828,9 +860,9 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -844,9 +876,9 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -860,9 +892,9 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -876,9 +908,9 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -892,9 +924,9 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -908,9 +940,9 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
-    </row>
-    <row r="16" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -924,9 +956,9 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -940,9 +972,9 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -956,9 +988,9 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -972,9 +1004,9 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -988,9 +1020,9 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1004,9 +1036,9 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1020,9 +1052,9 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1036,9 +1068,9 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
-    </row>
-    <row r="24" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -1052,9 +1084,9 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-    </row>
-    <row r="25" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1068,9 +1100,9 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
-    </row>
-    <row r="26" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -1084,9 +1116,9 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1100,9 +1132,9 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
-    </row>
-    <row r="28" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1116,9 +1148,9 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1132,9 +1164,9 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1148,9 +1180,9 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -1164,9 +1196,9 @@
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
-    </row>
-    <row r="32" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -1180,9 +1212,9 @@
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1196,10 +1228,10 @@
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -1207,32 +1239,33 @@
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
-    </row>
-    <row r="35" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="15"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="15"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="15"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="15"/>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="2:15" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="15"/>
       <c r="H37" s="15"/>
-      <c r="N37" s="14"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="I37" s="15"/>
+      <c r="O37" s="14"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C39" s="5"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="5"/>
-      <c r="N39" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D39" s="5"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="O39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
